--- a/Input/ford_approval.xlsx
+++ b/Input/ford_approval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="7">
   <si>
     <t>start_date_ford</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>unsure_ford</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>Ford</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +418,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>28104</v>
       </c>
@@ -429,8 +438,11 @@
       <c r="E2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>27919</v>
       </c>
@@ -446,8 +458,11 @@
       <c r="E3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>27897</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="E4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>27859</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="E5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>27835</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="E6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>27817</v>
       </c>
@@ -514,8 +538,11 @@
       <c r="E7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>27786</v>
       </c>
@@ -531,8 +558,11 @@
       <c r="E8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>27779</v>
       </c>
@@ -548,8 +578,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>27758</v>
       </c>
@@ -565,8 +598,11 @@
       <c r="E10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>27740</v>
       </c>
@@ -582,8 +618,11 @@
       <c r="E11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>27730</v>
       </c>
@@ -599,8 +638,11 @@
       <c r="E12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>27716</v>
       </c>
@@ -616,8 +658,11 @@
       <c r="E13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>27695</v>
       </c>
@@ -633,8 +678,11 @@
       <c r="E14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>27681</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="E15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>27670</v>
       </c>
@@ -667,8 +718,11 @@
       <c r="E16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>27646</v>
       </c>
@@ -684,8 +738,11 @@
       <c r="E17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>27618</v>
       </c>
@@ -701,8 +758,11 @@
       <c r="E18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>27604</v>
       </c>
@@ -718,8 +778,11 @@
       <c r="E19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>27569</v>
       </c>
@@ -735,8 +798,11 @@
       <c r="E20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>27541</v>
       </c>
@@ -752,8 +818,11 @@
       <c r="E21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>27516</v>
       </c>
@@ -769,8 +838,11 @@
       <c r="E22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>27499</v>
       </c>
@@ -786,8 +858,11 @@
       <c r="E23">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>27485</v>
       </c>
@@ -803,8 +878,11 @@
       <c r="E24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>27478</v>
       </c>
@@ -820,8 +898,11 @@
       <c r="E25">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>27457</v>
       </c>
@@ -837,8 +918,11 @@
       <c r="E26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>27450</v>
       </c>
@@ -854,8 +938,11 @@
       <c r="E27">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27422</v>
       </c>
@@ -871,8 +958,11 @@
       <c r="E28">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>27401</v>
       </c>
@@ -888,8 +978,11 @@
       <c r="E29">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>27366</v>
       </c>
@@ -905,8 +998,11 @@
       <c r="E30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>27345</v>
       </c>
@@ -922,8 +1018,11 @@
       <c r="E31">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>27338</v>
       </c>
@@ -939,8 +1038,11 @@
       <c r="E32">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>27317</v>
       </c>
@@ -956,8 +1058,11 @@
       <c r="E33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>27310</v>
       </c>
@@ -973,8 +1078,11 @@
       <c r="E34">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>27296</v>
       </c>
@@ -990,8 +1098,11 @@
       <c r="E35">
         <v>21</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>27275</v>
       </c>
@@ -1007,8 +1118,11 @@
       <c r="E36">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>27254</v>
       </c>
@@ -1023,6 +1137,9 @@
       </c>
       <c r="E37">
         <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
